--- a/工作计划安排.xlsx
+++ b/工作计划安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="20111228" sheetId="6" r:id="rId6"/>
     <sheet name="20111230" sheetId="7" r:id="rId7"/>
     <sheet name="20120109" sheetId="8" r:id="rId8"/>
+    <sheet name="20120112" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>1、</t>
   </si>
@@ -299,6 +300,54 @@
   </si>
   <si>
     <t>1.5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决查询首页的翻页问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加查询条件翻页功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.页面层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.后台交易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1363,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F12:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,4 +1436,70 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G12:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>